--- a/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Khach_Hang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Khach_Hang_Import.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\bill-back-end\API\wwwroot\docs\Template\ImportDanhMuc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376074E7-487B-4202-8CBC-1301689E5E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B189CB-08B0-4382-88B1-549DC9B18C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KETOAN-BACHKHOA" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <t>Người nhận hóa đơn - Số điện thoại</t>
   </si>
   <si>
-    <t>Ngừng theo dõi</t>
+    <t>Là tổ chức/cá nhân</t>
   </si>
 </sst>
 </file>
@@ -482,71 +482,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F320048-3AC4-4AC8-A4D9-1B47B7391FE1}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="39" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="39" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="33.140625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -566,21 +564,20 @@
       <c r="N2" s="4"/>
     </row>
   </sheetData>
-  <dataValidations xWindow="773" yWindow="311" count="14">
-    <dataValidation operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET" error="Ngày chứng từ không được để trống!" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Mã khách hàng." sqref="C1:C1048576" xr:uid="{6A252153-F253-4EA6-85E5-71AA240C66D3}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET" error="Số chứng từ không được để trống!" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Tên khách hàng._x000a_" sqref="D1:D1048576" xr:uid="{308BE4D5-B1FD-4198-8A51-65F103279D15}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Địa chỉ." sqref="E1:E1048576" xr:uid="{4D7BBAA0-E952-43DB-8DC0-BCA8622CB7D0}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Email." sqref="G1:G1048576" xr:uid="{DF1294D5-E78F-4AA8-8639-963E27DB9111}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Họ và tên người liên hệ." sqref="K1:K1048576" xr:uid="{F900F5A3-74AE-4110-8E55-0DC75A7763B9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Là tổ chức/cá nhân._x000a_Nhập 1 hoặc để trống: Cá nhân_x000a_Nhập 2: Tổ chức." sqref="A1:A1048576" xr:uid="{D94F192A-7419-499D-BE40-504BB0376915}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Mã số thuế." sqref="B1:B1048576" xr:uid="{13435B4F-AA27-47AC-9C10-3CD00DDED7DD}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Số điện thoại." sqref="F1:F1048576" xr:uid="{C5CB5338-3151-4681-9629-5B9D4E563EE1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng." sqref="H1:H1048576" xr:uid="{0673A505-94E4-4B0F-A910-F8644D1B34C2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Tên ngân hàng." sqref="I1:I1048576" xr:uid="{77340C0A-7A1D-4542-836F-72B0988D9D3E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Chi nhánh ngân hàng (chỉ nhập khi đã nhập &lt;Số tài khoản NH&gt; và &lt;Tên ngân hàng&gt;)." sqref="J1:J1048576" xr:uid="{7BABABC0-4495-4D98-9A76-D3021B60552A}"/>
-    <dataValidation showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Chức danh của người liên hệ." sqref="L1:L1048576" xr:uid="{8F9C4172-ABA7-4B9D-A676-D7797B03653E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Số điện thoại cố định của người liên hệ." sqref="M1:M1048576" xr:uid="{6AF7033B-D957-48BC-B871-7EDBED4BB37F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Số điện thoại di động của người liên hệ." sqref="N1:N1048576" xr:uid="{CAFBDD1C-2C48-4A22-A27E-0F0FE20F10BC}"/>
+  <dataValidations xWindow="773" yWindow="311" count="13">
+    <dataValidation operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET" error="Ngày chứng từ không được để trống!" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Mã khách hàng." sqref="D1:D1048576" xr:uid="{6A252153-F253-4EA6-85E5-71AA240C66D3}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET" error="Số chứng từ không được để trống!" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Tên khách hàng._x000a_" sqref="E1:E1048576" xr:uid="{308BE4D5-B1FD-4198-8A51-65F103279D15}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Địa chỉ." sqref="F1:F1048576" xr:uid="{4D7BBAA0-E952-43DB-8DC0-BCA8622CB7D0}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Email." sqref="H1:H1048576" xr:uid="{DF1294D5-E78F-4AA8-8639-963E27DB9111}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Họ và tên người liên hệ." sqref="L1:L1048576" xr:uid="{F900F5A3-74AE-4110-8E55-0DC75A7763B9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Là tổ chức/cá nhân._x000a_Nhập 1 hoặc để trống: Cá nhân_x000a_Nhập 2: Tổ chức." sqref="B1:B1048576 A1:A2" xr:uid="{D94F192A-7419-499D-BE40-504BB0376915}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Mã số thuế." sqref="C1:C1048576" xr:uid="{13435B4F-AA27-47AC-9C10-3CD00DDED7DD}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Số điện thoại." sqref="G1:G1048576" xr:uid="{C5CB5338-3151-4681-9629-5B9D4E563EE1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng." sqref="I1:I1048576" xr:uid="{0673A505-94E4-4B0F-A910-F8644D1B34C2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Tên ngân hàng." sqref="J1:J1048576" xr:uid="{77340C0A-7A1D-4542-836F-72B0988D9D3E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Chi nhánh ngân hàng (chỉ nhập khi đã nhập &lt;Số tài khoản NH&gt; và &lt;Tên ngân hàng&gt;)." sqref="K1:K1048576" xr:uid="{7BABABC0-4495-4D98-9A76-D3021B60552A}"/>
+    <dataValidation showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Chức danh của người liên hệ." sqref="M1:M1048576" xr:uid="{8F9C4172-ABA7-4B9D-A676-D7797B03653E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Số điện thoại cố định của người liên hệ." sqref="N1:N1048576" xr:uid="{6AF7033B-D957-48BC-B871-7EDBED4BB37F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Khach_Hang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Khach_Hang_Import.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\bill-back-end\API\wwwroot\docs\Template\ImportDanhMuc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B189CB-08B0-4382-88B1-549DC9B18C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452"/>
   </bookViews>
   <sheets>
     <sheet name="KETOAN-BACHKHOA" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,7 +194,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BA63D7E6-A731-4F88-876B-8DD44B2C87B6}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,28 +478,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F320048-3AC4-4AC8-A4D9-1B47B7391FE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="39" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="31.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="33.140625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="31.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="31.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="33.109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -564,20 +565,22 @@
       <c r="N2" s="4"/>
     </row>
   </sheetData>
-  <dataValidations xWindow="773" yWindow="311" count="13">
-    <dataValidation operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET" error="Ngày chứng từ không được để trống!" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Mã khách hàng." sqref="D1:D1048576" xr:uid="{6A252153-F253-4EA6-85E5-71AA240C66D3}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET" error="Số chứng từ không được để trống!" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Tên khách hàng._x000a_" sqref="E1:E1048576" xr:uid="{308BE4D5-B1FD-4198-8A51-65F103279D15}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Địa chỉ." sqref="F1:F1048576" xr:uid="{4D7BBAA0-E952-43DB-8DC0-BCA8622CB7D0}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Email." sqref="H1:H1048576" xr:uid="{DF1294D5-E78F-4AA8-8639-963E27DB9111}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Họ và tên người liên hệ." sqref="L1:L1048576" xr:uid="{F900F5A3-74AE-4110-8E55-0DC75A7763B9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Là tổ chức/cá nhân._x000a_Nhập 1 hoặc để trống: Cá nhân_x000a_Nhập 2: Tổ chức." sqref="B1:B1048576 A1:A2" xr:uid="{D94F192A-7419-499D-BE40-504BB0376915}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Mã số thuế." sqref="C1:C1048576" xr:uid="{13435B4F-AA27-47AC-9C10-3CD00DDED7DD}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Số điện thoại." sqref="G1:G1048576" xr:uid="{C5CB5338-3151-4681-9629-5B9D4E563EE1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Số tài khoản ngân hàng." sqref="I1:I1048576" xr:uid="{0673A505-94E4-4B0F-A910-F8644D1B34C2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Tên ngân hàng." sqref="J1:J1048576" xr:uid="{77340C0A-7A1D-4542-836F-72B0988D9D3E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Chi nhánh ngân hàng (chỉ nhập khi đã nhập &lt;Số tài khoản NH&gt; và &lt;Tên ngân hàng&gt;)." sqref="K1:K1048576" xr:uid="{7BABABC0-4495-4D98-9A76-D3021B60552A}"/>
-    <dataValidation showInputMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Chức danh của người liên hệ." sqref="M1:M1048576" xr:uid="{8F9C4172-ABA7-4B9D-A676-D7797B03653E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="KETOAN-BACHKHOA" prompt="Nhập Số điện thoại cố định của người liên hệ." sqref="N1:N1048576" xr:uid="{6AF7033B-D957-48BC-B871-7EDBED4BB37F}"/>
+  <dataConsolidate/>
+  <dataValidations xWindow="773" yWindow="311" count="14">
+    <dataValidation operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET" error="Ngày chứng từ không được để trống!" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã số thuế." sqref="D1:D1048576"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET" error="Số chứng từ không được để trống!" promptTitle="HOADON-BACHKHOA" prompt="Nhập Địa chỉ._x000a_" sqref="E1:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tài khoản ngân hàng." sqref="F1:F1048576"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Chi nhánh." sqref="H1:H1048576"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Người nhận hóa đơn - Họ và tên." sqref="L1:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Mã khách hàng." sqref="B1:B1048576"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên ngân hàng." sqref="G1:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Người mua hàng - Họ và tên." sqref="I1:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Người mua hàng - Email." sqref="J1:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Người mua hàng - Số điện thoại" sqref="K1:K1048576"/>
+    <dataValidation showInputMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Người nhận hóa đơn - Email" sqref="M1:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Người nhận hóa đơn - Số điện thoại." sqref="N1:N1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Là tổ chức/cá nhân._x000a_Nhập 1 hoặc để trống: Cá nhân_x000a_Nhập 2: Tổ chức." sqref="A1:A2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADON-BACHKHOA" prompt="Nhập Tên khách hàng." sqref="C1:C1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Khach_Hang_Import.xlsx
+++ b/API/wwwroot/docs/Template/ImportDanhMuc/Danh_Muc_Khach_Hang_Import.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanlt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144"/>
   </bookViews>
   <sheets>
-    <sheet name="KETOAN-BACHKHOA" sheetId="2" r:id="rId1"/>
+    <sheet name="HOADON-BACHKHOA" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
